--- a/doc/เธเธฒเธเธ—เนเธฒเน€เธฃเธทเธญ.xlsx
+++ b/doc/เธเธฒเธเธ—เนเธฒเน€เธฃเธทเธญ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="288">
   <si>
     <t>รายการ</t>
   </si>
@@ -838,6 +838,48 @@
   </si>
   <si>
     <t>ระบบบุคลากรแรงงาน</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>e-port-management</t>
+  </si>
+  <si>
+    <t>crm</t>
+  </si>
+  <si>
+    <t>e-gate</t>
+  </si>
+  <si>
+    <t>area-management</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>traffic-control</t>
+  </si>
+  <si>
+    <t>inspection</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>personnel</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>transfer</t>
   </si>
 </sst>
 </file>
@@ -1068,6 +1110,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1079,11 +1126,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1795,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1828,27 +1870,27 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="L2" s="41" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="L2" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
@@ -2942,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
@@ -3077,6 +3119,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D14" s="9" t="s">
+        <v>274</v>
+      </c>
       <c r="E14" s="14" t="s">
         <v>97</v>
       </c>
@@ -3103,48 +3148,51 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="21"/>
       <c r="B17" s="40"/>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="43" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="E18" s="46" t="s">
+      <c r="D18" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="43" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="43" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="43" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3158,7 +3206,7 @@
       <c r="C22" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="41" t="s">
         <v>269</v>
       </c>
       <c r="E22" s="16" t="s">
@@ -3169,6 +3217,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D23" s="9" t="s">
+        <v>275</v>
+      </c>
       <c r="E23" s="16" t="s">
         <v>259</v>
       </c>
@@ -3207,7 +3258,9 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B26" s="11"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
+      <c r="D26" s="38" t="s">
+        <v>276</v>
+      </c>
       <c r="E26" s="26" t="s">
         <v>134</v>
       </c>
@@ -3326,7 +3379,9 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
+      <c r="D35" s="38" t="s">
+        <v>277</v>
+      </c>
       <c r="E35" s="29" t="s">
         <v>144</v>
       </c>
@@ -3406,7 +3461,9 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
+      <c r="D41" s="38" t="s">
+        <v>278</v>
+      </c>
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
       <c r="G41" s="31" t="s">
@@ -3472,7 +3529,9 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.5">
       <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="D47" s="39" t="s">
+        <v>279</v>
+      </c>
       <c r="E47" s="26" t="s">
         <v>176</v>
       </c>
@@ -3559,6 +3618,9 @@
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="D57" s="9" t="s">
+        <v>280</v>
+      </c>
       <c r="E57" s="29" t="s">
         <v>208</v>
       </c>
@@ -3629,6 +3691,9 @@
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="D65" s="9" t="s">
+        <v>281</v>
+      </c>
       <c r="E65" s="31" t="s">
         <v>220</v>
       </c>
@@ -3667,6 +3732,9 @@
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="D69" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="E69" s="26" t="s">
         <v>227</v>
       </c>
@@ -3705,6 +3773,9 @@
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="D73" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="E73" s="29" t="s">
         <v>233</v>
       </c>
@@ -3743,6 +3814,9 @@
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="D77" s="9" t="s">
+        <v>283</v>
+      </c>
       <c r="E77" s="31" t="s">
         <v>241</v>
       </c>
@@ -3773,6 +3847,9 @@
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="D80" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="E80" s="26" t="s">
         <v>246</v>
       </c>
@@ -3811,6 +3888,9 @@
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.5">
+      <c r="D84" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="E84" s="31" t="s">
         <v>254</v>
       </c>

--- a/doc/เธเธฒเธเธ—เนเธฒเน€เธฃเธทเธญ.xlsx
+++ b/doc/เธเธฒเธเธ—เนเธฒเน€เธฃเธทเธญ.xlsx
@@ -861,9 +861,6 @@
     <t>traffic-control</t>
   </si>
   <si>
-    <t>inspection</t>
-  </si>
-  <si>
     <t>warehouse</t>
   </si>
   <si>
@@ -880,6 +877,9 @@
   </si>
   <si>
     <t>transfer</t>
+  </si>
+  <si>
+    <t>counting</t>
   </si>
 </sst>
 </file>
@@ -2985,7 +2985,7 @@
   <dimension ref="A2:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D18" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>263</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.5">
       <c r="D65" s="9" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E65" s="31" t="s">
         <v>220</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.5">
       <c r="D69" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>227</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.5">
       <c r="D73" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>233</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.5">
       <c r="D77" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E77" s="31" t="s">
         <v>241</v>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.5">
       <c r="D80" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E80" s="26" t="s">
         <v>246</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.5">
       <c r="D84" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E84" s="31" t="s">
         <v>254</v>

--- a/doc/เธเธฒเธเธ—เนเธฒเน€เธฃเธทเธญ.xlsx
+++ b/doc/เธเธฒเธเธ—เนเธฒเน€เธฃเธทเธญ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="289">
   <si>
     <t>รายการ</t>
   </si>
@@ -880,6 +880,9 @@
   </si>
   <si>
     <t>counting</t>
+  </si>
+  <si>
+    <t>ผู้ใช้งานในระบบ</t>
   </si>
 </sst>
 </file>
@@ -2984,8 +2987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
@@ -3134,7 +3137,7 @@
         <v>98</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>95</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
